--- a/2021级口腔医学2班平时成绩.xlsx
+++ b/2021级口腔医学2班平时成绩.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRM\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0407EA44-7111-4622-B770-607AF235B3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEDA50BC-0D57-4501-8B23-CEF7EF36DDF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="79">
   <si>
     <t>王佳飞</t>
   </si>
@@ -240,13 +239,65 @@
   </si>
   <si>
     <t>周梓园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -617,11 +668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09329E3-CC24-41D5-9B39-845749BF2C3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -688,6 +739,9 @@
       <c r="H2" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -714,6 +768,9 @@
       <c r="H3" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -740,6 +797,9 @@
       <c r="H4" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -766,6 +826,9 @@
       <c r="H5" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -792,6 +855,9 @@
       <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -818,6 +884,9 @@
       <c r="H7" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -844,6 +913,9 @@
       <c r="H8" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -870,6 +942,9 @@
       <c r="H9" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -896,6 +971,9 @@
       <c r="H10" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -922,6 +1000,9 @@
       <c r="H11" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -948,6 +1029,9 @@
       <c r="H12" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -974,6 +1058,9 @@
       <c r="H13" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1000,6 +1087,9 @@
       <c r="H14" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1026,6 +1116,9 @@
       <c r="H15" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1052,8 +1145,11 @@
       <c r="H16" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1078,8 +1174,11 @@
       <c r="H17" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1104,8 +1203,11 @@
       <c r="H18" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1130,8 +1232,11 @@
       <c r="H19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1156,8 +1261,11 @@
       <c r="H20" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1182,8 +1290,11 @@
       <c r="H21" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1208,8 +1319,11 @@
       <c r="H22" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1234,8 +1348,11 @@
       <c r="H23" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1260,8 +1377,11 @@
       <c r="H24" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1286,8 +1406,11 @@
       <c r="H25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1312,8 +1435,11 @@
       <c r="H26" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1338,8 +1464,11 @@
       <c r="H27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1364,8 +1493,11 @@
       <c r="H28" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1390,8 +1522,11 @@
       <c r="H29" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1416,8 +1551,11 @@
       <c r="H30" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1442,8 +1580,11 @@
       <c r="H31" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1468,8 +1609,11 @@
       <c r="H32" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1494,8 +1638,11 @@
       <c r="H33" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1520,8 +1667,11 @@
       <c r="H34" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1546,8 +1696,11 @@
       <c r="H35" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1572,8 +1725,11 @@
       <c r="H36" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1598,8 +1754,11 @@
       <c r="H37" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1624,8 +1783,11 @@
       <c r="H38" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1650,8 +1812,11 @@
       <c r="H39" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1676,8 +1841,11 @@
       <c r="H40" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1702,8 +1870,11 @@
       <c r="H41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1728,8 +1899,11 @@
       <c r="H42" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1754,8 +1928,11 @@
       <c r="H43" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1780,8 +1957,11 @@
       <c r="H44" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1806,8 +1986,11 @@
       <c r="H45" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1832,8 +2015,11 @@
       <c r="H46" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1858,8 +2044,11 @@
       <c r="H47" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1884,8 +2073,11 @@
       <c r="H48" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1910,8 +2102,11 @@
       <c r="H49" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1936,8 +2131,11 @@
       <c r="H50" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1962,8 +2160,11 @@
       <c r="H51" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1988,8 +2189,11 @@
       <c r="H52" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2012,6 +2216,9 @@
         <v>0</v>
       </c>
       <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2022,247 +2229,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5DE828-0EED-44AD-BAAB-23557AC40489}">
-  <dimension ref="F1:F47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F47"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" t="s">
+    <row r="1" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" t="s">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" t="s">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" t="s">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" t="s">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F39" t="s">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F40" t="s">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F42" t="s">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F47" t="s">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2273,7 +2485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6B8A95-D9AE-44F0-82F7-5F40E1305ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
